--- a/Data/CPI_1990_2024.xlsx
+++ b/Data/CPI_1990_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osmar\OneDrive\Escritorio\GitHub Repositories\Weekly-Inflation-2SML\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\mefp\osmar.bolivar\Desktop\Research\Weekly-Inflation-2SML\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C5C329-7A76-43E0-AD96-C29C370EC8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AE9438-5EFD-41BB-AD7B-766910884961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5EC5E45D-69AD-465A-8379-05046D5D7107}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5EC5E45D-69AD-465A-8379-05046D5D7107}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,9 +35,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>ipc</t>
-  </si>
   <si>
     <t>ipc_ali</t>
   </si>
@@ -64,15 +59,18 @@
   <si>
     <t>ipc_bsss</t>
   </si>
+  <si>
+    <t>ipc_all</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,7 +138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -485,39 +483,39 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" ht="15">
       <c r="A2" s="2">
         <v>32874</v>
       </c>
@@ -533,7 +531,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15">
       <c r="A3" s="2">
         <v>32905</v>
       </c>
@@ -549,7 +547,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="2">
         <v>32933</v>
       </c>
@@ -565,7 +563,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15">
       <c r="A5" s="2">
         <v>32964</v>
       </c>
@@ -581,7 +579,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15">
       <c r="A6" s="2">
         <v>32994</v>
       </c>
@@ -597,7 +595,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15">
       <c r="A7" s="2">
         <v>33025</v>
       </c>
@@ -613,7 +611,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15">
       <c r="A8" s="2">
         <v>33055</v>
       </c>
@@ -629,7 +627,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15">
       <c r="A9" s="2">
         <v>33086</v>
       </c>
@@ -645,7 +643,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15">
       <c r="A10" s="2">
         <v>33117</v>
       </c>
@@ -661,7 +659,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15">
       <c r="A11" s="2">
         <v>33147</v>
       </c>
@@ -677,7 +675,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15">
       <c r="A12" s="2">
         <v>33178</v>
       </c>
@@ -693,7 +691,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15">
       <c r="A13" s="2">
         <v>33208</v>
       </c>
@@ -709,7 +707,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" s="2">
         <v>33239</v>
       </c>
@@ -725,7 +723,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15">
       <c r="A15" s="2">
         <v>33270</v>
       </c>
@@ -741,7 +739,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15">
       <c r="A16" s="2">
         <v>33298</v>
       </c>
@@ -757,7 +755,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15">
       <c r="A17" s="2">
         <v>33329</v>
       </c>
@@ -773,7 +771,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15">
       <c r="A18" s="2">
         <v>33359</v>
       </c>
@@ -789,7 +787,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15">
       <c r="A19" s="2">
         <v>33390</v>
       </c>
@@ -805,7 +803,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15">
       <c r="A20" s="2">
         <v>33420</v>
       </c>
@@ -821,7 +819,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15">
       <c r="A21" s="2">
         <v>33451</v>
       </c>
@@ -837,7 +835,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15">
       <c r="A22" s="2">
         <v>33482</v>
       </c>
@@ -853,7 +851,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15">
       <c r="A23" s="2">
         <v>33512</v>
       </c>
@@ -869,7 +867,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15">
       <c r="A24" s="2">
         <v>33543</v>
       </c>
@@ -885,7 +883,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15">
       <c r="A25" s="2">
         <v>33573</v>
       </c>
@@ -901,7 +899,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15">
       <c r="A26" s="2">
         <v>33604</v>
       </c>
@@ -917,7 +915,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="15">
       <c r="A27" s="2">
         <v>33635</v>
       </c>
@@ -933,7 +931,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15">
       <c r="A28" s="2">
         <v>33664</v>
       </c>
@@ -965,7 +963,7 @@
         <v>31.305815286606396</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="15">
       <c r="A29" s="2">
         <v>33695</v>
       </c>
@@ -997,7 +995,7 @@
         <v>31.641182309526354</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15">
       <c r="A30" s="2">
         <v>33725</v>
       </c>
@@ -1029,7 +1027,7 @@
         <v>31.781611683253161</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15">
       <c r="A31" s="2">
         <v>33756</v>
       </c>
@@ -1061,7 +1059,7 @@
         <v>32.197117367401731</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15">
       <c r="A32" s="2">
         <v>33786</v>
       </c>
@@ -1093,7 +1091,7 @@
         <v>32.698547985703392</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="15">
       <c r="A33" s="2">
         <v>33817</v>
       </c>
@@ -1125,7 +1123,7 @@
         <v>32.895400369075624</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15">
       <c r="A34" s="2">
         <v>33848</v>
       </c>
@@ -1157,7 +1155,7 @@
         <v>32.942169055953983</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="15">
       <c r="A35" s="2">
         <v>33878</v>
       </c>
@@ -1189,7 +1187,7 @@
         <v>33.166263483541442</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15">
       <c r="A36" s="2">
         <v>33909</v>
       </c>
@@ -1221,7 +1219,7 @@
         <v>33.401435773998323</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="15">
       <c r="A37" s="2">
         <v>33939</v>
       </c>
@@ -1253,7 +1251,7 @@
         <v>33.477111186804592</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="15">
       <c r="A38" s="2">
         <v>33970</v>
       </c>
@@ -1285,7 +1283,7 @@
         <v>33.476227007735865</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="15">
       <c r="A39" s="2">
         <v>34001</v>
       </c>
@@ -1317,7 +1315,7 @@
         <v>33.570914672065939</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="15">
       <c r="A40" s="2">
         <v>34029</v>
       </c>
@@ -1349,7 +1347,7 @@
         <v>33.905393234594655</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="15">
       <c r="A41" s="2">
         <v>34060</v>
       </c>
@@ -1381,7 +1379,7 @@
         <v>34.215895139907694</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="15">
       <c r="A42" s="2">
         <v>34090</v>
       </c>
@@ -1413,7 +1411,7 @@
         <v>34.394887883685129</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="15">
       <c r="A43" s="2">
         <v>34121</v>
       </c>
@@ -1445,7 +1443,7 @@
         <v>34.733556002431541</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="15">
       <c r="A44" s="2">
         <v>34151</v>
       </c>
@@ -1477,7 +1475,7 @@
         <v>35.004447035176426</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="15">
       <c r="A45" s="2">
         <v>34182</v>
       </c>
@@ -1509,7 +1507,7 @@
         <v>35.211993013390362</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="15">
       <c r="A46" s="2">
         <v>34213</v>
       </c>
@@ -1541,7 +1539,7 @@
         <v>35.572383052352741</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="15">
       <c r="A47" s="2">
         <v>34243</v>
       </c>
@@ -1573,7 +1571,7 @@
         <v>35.783885492618388</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="15">
       <c r="A48" s="2">
         <v>34274</v>
       </c>
@@ -1605,7 +1603,7 @@
         <v>35.893162288723509</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="15">
       <c r="A49" s="2">
         <v>34304</v>
       </c>
@@ -1637,7 +1635,7 @@
         <v>36.077276980140105</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="15">
       <c r="A50" s="2">
         <v>34335</v>
       </c>
@@ -1669,7 +1667,7 @@
         <v>36.620820981360353</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15">
       <c r="A51" s="2">
         <v>34366</v>
       </c>
@@ -1701,7 +1699,7 @@
         <v>36.858912923570301</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15">
       <c r="A52" s="2">
         <v>34394</v>
       </c>
@@ -1733,7 +1731,7 @@
         <v>37.152616015700801</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15">
       <c r="A53" s="2">
         <v>34425</v>
       </c>
@@ -1765,7 +1763,7 @@
         <v>37.358048782228515</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15">
       <c r="A54" s="2">
         <v>34455</v>
       </c>
@@ -1797,7 +1795,7 @@
         <v>37.611011229439974</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="15">
       <c r="A55" s="2">
         <v>34486</v>
       </c>
@@ -1829,7 +1827,7 @@
         <v>37.750804079336731</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="15">
       <c r="A56" s="2">
         <v>34516</v>
       </c>
@@ -1861,7 +1859,7 @@
         <v>38.087140811867897</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="15">
       <c r="A57" s="2">
         <v>34547</v>
       </c>
@@ -1893,7 +1891,7 @@
         <v>38.237121777510005</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="15">
       <c r="A58" s="2">
         <v>34578</v>
       </c>
@@ -1925,7 +1923,7 @@
         <v>38.437511187366795</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="15">
       <c r="A59" s="2">
         <v>34608</v>
       </c>
@@ -1957,7 +1955,7 @@
         <v>38.81409724532012</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="15">
       <c r="A60" s="2">
         <v>34639</v>
       </c>
@@ -1989,7 +1987,7 @@
         <v>38.869708018198196</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="15">
       <c r="A61" s="2">
         <v>34669</v>
       </c>
@@ -2021,7 +2019,7 @@
         <v>39.025601257268299</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="15">
       <c r="A62" s="2">
         <v>34700</v>
       </c>
@@ -2053,7 +2051,7 @@
         <v>39.558819646654896</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="15">
       <c r="A63" s="2">
         <v>34731</v>
       </c>
@@ -2085,7 +2083,7 @@
         <v>40.098466631140923</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="15">
       <c r="A64" s="2">
         <v>34759</v>
       </c>
@@ -2117,7 +2115,7 @@
         <v>40.398861658864362</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="15">
       <c r="A65" s="2">
         <v>34790</v>
       </c>
@@ -2149,7 +2147,7 @@
         <v>40.800366876526468</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="15">
       <c r="A66" s="2">
         <v>34820</v>
       </c>
@@ -2181,7 +2179,7 @@
         <v>40.867369824578311</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="15">
       <c r="A67" s="2">
         <v>34851</v>
       </c>
@@ -2213,7 +2211,7 @@
         <v>41.167606458993987</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="15">
       <c r="A68" s="2">
         <v>34881</v>
       </c>
@@ -2245,7 +2243,7 @@
         <v>41.114647799559485</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="15">
       <c r="A69" s="2">
         <v>34912</v>
       </c>
@@ -2277,7 +2275,7 @@
         <v>41.396100279119736</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="15">
       <c r="A70" s="2">
         <v>34943</v>
       </c>
@@ -2309,7 +2307,7 @@
         <v>41.403255199243091</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="15">
       <c r="A71" s="2">
         <v>34973</v>
       </c>
@@ -2341,7 +2339,7 @@
         <v>41.489159834978707</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="15">
       <c r="A72" s="2">
         <v>35004</v>
       </c>
@@ -2373,7 +2371,7 @@
         <v>41.596320163331285</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="15">
       <c r="A73" s="2">
         <v>35034</v>
       </c>
@@ -2405,7 +2403,7 @@
         <v>41.647911805020613</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="15">
       <c r="A74" s="2">
         <v>35065</v>
       </c>
@@ -2437,7 +2435,7 @@
         <v>41.951081207097538</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="15">
       <c r="A75" s="2">
         <v>35096</v>
       </c>
@@ -2469,7 +2467,7 @@
         <v>43.610770471572067</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="15">
       <c r="A76" s="2">
         <v>35125</v>
       </c>
@@ -2501,7 +2499,7 @@
         <v>44.117108876649901</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="15">
       <c r="A77" s="2">
         <v>35156</v>
       </c>
@@ -2533,7 +2531,7 @@
         <v>44.281077107711035</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="15">
       <c r="A78" s="2">
         <v>35186</v>
       </c>
@@ -2565,7 +2563,7 @@
         <v>44.495377380001365</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="15">
       <c r="A79" s="2">
         <v>35217</v>
       </c>
@@ -2597,7 +2595,7 @@
         <v>44.64172785042966</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="15">
       <c r="A80" s="2">
         <v>35247</v>
       </c>
@@ -2629,7 +2627,7 @@
         <v>44.830256444430454</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="15">
       <c r="A81" s="2">
         <v>35278</v>
       </c>
@@ -2661,7 +2659,7 @@
         <v>44.907818579904891</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="15">
       <c r="A82" s="2">
         <v>35309</v>
       </c>
@@ -2693,7 +2691,7 @@
         <v>44.993936433981062</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="15">
       <c r="A83" s="2">
         <v>35339</v>
       </c>
@@ -2725,7 +2723,7 @@
         <v>45.120973143770435</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="15">
       <c r="A84" s="2">
         <v>35370</v>
       </c>
@@ -2757,7 +2755,7 @@
         <v>45.297836645778546</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="15">
       <c r="A85" s="2">
         <v>35400</v>
       </c>
@@ -2789,7 +2787,7 @@
         <v>45.41104903459415</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="15">
       <c r="A86" s="2">
         <v>35431</v>
       </c>
@@ -2821,7 +2819,7 @@
         <v>45.710480745986672</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="15">
       <c r="A87" s="2">
         <v>35462</v>
       </c>
@@ -2853,7 +2851,7 @@
         <v>46.026146135375711</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="15">
       <c r="A88" s="2">
         <v>35490</v>
       </c>
@@ -2885,7 +2883,7 @@
         <v>46.1223027163308</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="15">
       <c r="A89" s="2">
         <v>35521</v>
       </c>
@@ -2917,7 +2915,7 @@
         <v>46.14633484344143</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="15">
       <c r="A90" s="2">
         <v>35551</v>
       </c>
@@ -2949,7 +2947,7 @@
         <v>46.136112475330272</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="15">
       <c r="A91" s="2">
         <v>35582</v>
       </c>
@@ -2981,7 +2979,7 @@
         <v>46.235278737232157</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="15">
       <c r="A92" s="2">
         <v>35612</v>
       </c>
@@ -3013,7 +3011,7 @@
         <v>46.317022150504187</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="15">
       <c r="A93" s="2">
         <v>35643</v>
       </c>
@@ -3045,7 +3043,7 @@
         <v>46.499439188932747</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="15">
       <c r="A94" s="2">
         <v>35674</v>
       </c>
@@ -3077,7 +3075,7 @@
         <v>46.634590597080482</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="15">
       <c r="A95" s="2">
         <v>35704</v>
       </c>
@@ -3109,7 +3107,7 @@
         <v>46.734965633833674</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="15">
       <c r="A96" s="2">
         <v>35735</v>
       </c>
@@ -3141,7 +3139,7 @@
         <v>46.904181276810618</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="15">
       <c r="A97" s="2">
         <v>35765</v>
       </c>
@@ -3173,7 +3171,7 @@
         <v>47.645388066167961</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="15">
       <c r="A98" s="2">
         <v>35796</v>
       </c>
@@ -3205,7 +3203,7 @@
         <v>48.582325031321382</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="15">
       <c r="A99" s="2">
         <v>35827</v>
       </c>
@@ -3237,7 +3235,7 @@
         <v>48.853395947384676</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="15">
       <c r="A100" s="2">
         <v>35855</v>
       </c>
@@ -3269,7 +3267,7 @@
         <v>49.084938848350411</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="15">
       <c r="A101" s="2">
         <v>35886</v>
       </c>
@@ -3301,7 +3299,7 @@
         <v>49.120538431341686</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="15">
       <c r="A102" s="2">
         <v>35916</v>
       </c>
@@ -3333,7 +3331,7 @@
         <v>49.042812691139154</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="15">
       <c r="A103" s="2">
         <v>35947</v>
       </c>
@@ -3365,7 +3363,7 @@
         <v>49.152666951952725</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="15">
       <c r="A104" s="2">
         <v>35977</v>
       </c>
@@ -3397,7 +3395,7 @@
         <v>49.202619624749836</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="15">
       <c r="A105" s="2">
         <v>36008</v>
       </c>
@@ -3429,7 +3427,7 @@
         <v>49.274261567130608</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="15">
       <c r="A106" s="2">
         <v>36039</v>
       </c>
@@ -3461,7 +3459,7 @@
         <v>49.327381708158072</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="15">
       <c r="A107" s="2">
         <v>36069</v>
       </c>
@@ -3493,7 +3491,7 @@
         <v>49.332276349741264</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="15">
       <c r="A108" s="2">
         <v>36100</v>
       </c>
@@ -3525,7 +3523,7 @@
         <v>49.438168101530174</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="15">
       <c r="A109" s="2">
         <v>36130</v>
       </c>
@@ -3557,7 +3555,7 @@
         <v>49.710657565495822</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="15">
       <c r="A110" s="2">
         <v>36161</v>
       </c>
@@ -3589,7 +3587,7 @@
         <v>50.287061017414423</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="15">
       <c r="A111" s="2">
         <v>36192</v>
       </c>
@@ -3621,7 +3619,7 @@
         <v>50.390524125189046</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="15">
       <c r="A112" s="2">
         <v>36220</v>
       </c>
@@ -3653,7 +3651,7 @@
         <v>50.439030917078966</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="15">
       <c r="A113" s="2">
         <v>36251</v>
       </c>
@@ -3685,7 +3683,7 @@
         <v>50.510158428862674</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="15">
       <c r="A114" s="2">
         <v>36281</v>
       </c>
@@ -3717,7 +3715,7 @@
         <v>50.545217762517801</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="15">
       <c r="A115" s="2">
         <v>36312</v>
       </c>
@@ -3749,7 +3747,7 @@
         <v>51.115537651155677</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="15">
       <c r="A116" s="2">
         <v>36342</v>
       </c>
@@ -3781,7 +3779,7 @@
         <v>51.580231380855324</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="15">
       <c r="A117" s="2">
         <v>36373</v>
       </c>
@@ -3813,7 +3811,7 @@
         <v>51.488074451087947</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" ht="15">
       <c r="A118" s="2">
         <v>36404</v>
       </c>
@@ -3845,7 +3843,7 @@
         <v>51.555318934366184</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" ht="15">
       <c r="A119" s="2">
         <v>36434</v>
       </c>
@@ -3877,7 +3875,7 @@
         <v>51.750453360164492</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" ht="15">
       <c r="A120" s="2">
         <v>36465</v>
       </c>
@@ -3909,7 +3907,7 @@
         <v>51.997033206280271</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" ht="15">
       <c r="A121" s="2">
         <v>36495</v>
       </c>
@@ -3941,7 +3939,7 @@
         <v>52.468401690402388</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" ht="15">
       <c r="A122" s="2">
         <v>36526</v>
       </c>
@@ -3973,7 +3971,7 @@
         <v>53.528419889774014</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" ht="15">
       <c r="A123" s="2">
         <v>36557</v>
       </c>
@@ -4005,7 +4003,7 @@
         <v>54.026313975638423</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="15">
       <c r="A124" s="2">
         <v>36586</v>
       </c>
@@ -4037,7 +4035,7 @@
         <v>54.369711092621998</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" ht="15">
       <c r="A125" s="2">
         <v>36617</v>
       </c>
@@ -4069,7 +4067,7 @@
         <v>54.810441490098071</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="15">
       <c r="A126" s="2">
         <v>36647</v>
       </c>
@@ -4101,7 +4099,7 @@
         <v>54.837386562071444</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" ht="15">
       <c r="A127" s="2">
         <v>36678</v>
       </c>
@@ -4133,7 +4131,7 @@
         <v>54.700219353132425</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="15">
       <c r="A128" s="2">
         <v>36708</v>
       </c>
@@ -4165,7 +4163,7 @@
         <v>54.76152585915252</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" ht="15">
       <c r="A129" s="2">
         <v>36739</v>
       </c>
@@ -4197,7 +4195,7 @@
         <v>54.749647330646361</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" ht="15">
       <c r="A130" s="2">
         <v>36770</v>
       </c>
@@ -4229,7 +4227,7 @@
         <v>54.865425340854195</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" ht="15">
       <c r="A131" s="2">
         <v>36800</v>
       </c>
@@ -4261,7 +4259,7 @@
         <v>54.919772433562841</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" ht="15">
       <c r="A132" s="2">
         <v>36831</v>
       </c>
@@ -4293,7 +4291,7 @@
         <v>55.045783531470455</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" ht="15">
       <c r="A133" s="2">
         <v>36861</v>
       </c>
@@ -4325,7 +4323,7 @@
         <v>55.187278140785196</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" ht="15">
       <c r="A134" s="2">
         <v>36892</v>
       </c>
@@ -4357,7 +4355,7 @@
         <v>56.011307476512989</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" ht="15">
       <c r="A135" s="2">
         <v>36923</v>
       </c>
@@ -4389,7 +4387,7 @@
         <v>56.257706413288773</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" ht="15">
       <c r="A136" s="2">
         <v>36951</v>
       </c>
@@ -4421,7 +4419,7 @@
         <v>56.179944719781616</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" ht="15">
       <c r="A137" s="2">
         <v>36982</v>
       </c>
@@ -4453,7 +4451,7 @@
         <v>56.219708585795097</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="15">
       <c r="A138" s="2">
         <v>37012</v>
       </c>
@@ -4485,7 +4483,7 @@
         <v>56.323118628236827</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="15">
       <c r="A139" s="2">
         <v>37043</v>
       </c>
@@ -4517,7 +4515,7 @@
         <v>56.470002129661111</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" ht="15">
       <c r="A140" s="2">
         <v>37073</v>
       </c>
@@ -4549,7 +4547,7 @@
         <v>56.543190231655728</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="15">
       <c r="A141" s="2">
         <v>37104</v>
       </c>
@@ -4581,7 +4579,7 @@
         <v>56.67454648331907</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" ht="15">
       <c r="A142" s="2">
         <v>37135</v>
       </c>
@@ -4613,7 +4611,7 @@
         <v>56.818899262905134</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" ht="15">
       <c r="A143" s="2">
         <v>37165</v>
       </c>
@@ -4645,7 +4643,7 @@
         <v>56.920112351527614</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" ht="15">
       <c r="A144" s="2">
         <v>37196</v>
       </c>
@@ -4677,7 +4675,7 @@
         <v>56.958036196130863</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" ht="15">
       <c r="A145" s="2">
         <v>37226</v>
       </c>
@@ -4709,7 +4707,7 @@
         <v>57.046551486029585</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" ht="15">
       <c r="A146" s="2">
         <v>37257</v>
       </c>
@@ -4741,7 +4739,7 @@
         <v>57.114036998678721</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" ht="15">
       <c r="A147" s="2">
         <v>37288</v>
       </c>
@@ -4773,7 +4771,7 @@
         <v>57.223156125324323</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" ht="15">
       <c r="A148" s="2">
         <v>37316</v>
       </c>
@@ -4805,7 +4803,7 @@
         <v>57.356726060464183</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" ht="15">
       <c r="A149" s="2">
         <v>37347</v>
       </c>
@@ -4837,7 +4835,7 @@
         <v>57.485789326144868</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" ht="15">
       <c r="A150" s="2">
         <v>37377</v>
       </c>
@@ -4869,7 +4867,7 @@
         <v>57.576689959578729</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" ht="15">
       <c r="A151" s="2">
         <v>37408</v>
       </c>
@@ -4901,7 +4899,7 @@
         <v>57.634813559114271</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" ht="15">
       <c r="A152" s="2">
         <v>37438</v>
       </c>
@@ -4933,7 +4931,7 @@
         <v>57.796025449566052</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" ht="15">
       <c r="A153" s="2">
         <v>37469</v>
       </c>
@@ -4965,7 +4963,7 @@
         <v>57.881650757470638</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" ht="15">
       <c r="A154" s="2">
         <v>37500</v>
       </c>
@@ -4997,7 +4995,7 @@
         <v>57.915967089393511</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" ht="15">
       <c r="A155" s="2">
         <v>37530</v>
       </c>
@@ -5029,7 +5027,7 @@
         <v>58.107591503144739</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" ht="15">
       <c r="A156" s="2">
         <v>37561</v>
       </c>
@@ -5061,7 +5059,7 @@
         <v>58.194501920324001</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" ht="15">
       <c r="A157" s="2">
         <v>37591</v>
       </c>
@@ -5093,7 +5091,7 @@
         <v>58.266785029477965</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" ht="15">
       <c r="A158" s="2">
         <v>37622</v>
       </c>
@@ -5125,7 +5123,7 @@
         <v>58.307923382350992</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" ht="15">
       <c r="A159" s="2">
         <v>37653</v>
       </c>
@@ -5157,7 +5155,7 @@
         <v>58.508210022365134</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" ht="15">
       <c r="A160" s="2">
         <v>37681</v>
       </c>
@@ -5189,7 +5187,7 @@
         <v>58.711416764913295</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" ht="15">
       <c r="A161" s="2">
         <v>37712</v>
       </c>
@@ -5221,7 +5219,7 @@
         <v>58.822436242776192</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" ht="15">
       <c r="A162" s="2">
         <v>37742</v>
       </c>
@@ -5253,7 +5251,7 @@
         <v>58.823209440437232</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" ht="15">
       <c r="A163" s="2">
         <v>37773</v>
       </c>
@@ -5285,7 +5283,7 @@
         <v>58.838067746456808</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" ht="15">
       <c r="A164" s="2">
         <v>37803</v>
       </c>
@@ -5317,7 +5315,7 @@
         <v>58.855581902357258</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" ht="15">
       <c r="A165" s="2">
         <v>37834</v>
       </c>
@@ -5349,7 +5347,7 @@
         <v>58.974847273717231</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" ht="15">
       <c r="A166" s="2">
         <v>37865</v>
       </c>
@@ -5381,7 +5379,7 @@
         <v>59.202655185211945</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" ht="15">
       <c r="A167" s="2">
         <v>37895</v>
       </c>
@@ -5413,7 +5411,7 @@
         <v>59.391735623415713</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" ht="15">
       <c r="A168" s="2">
         <v>37926</v>
       </c>
@@ -5445,7 +5443,7 @@
         <v>59.648805751584376</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" ht="15">
       <c r="A169" s="2">
         <v>37956</v>
       </c>
@@ -5477,7 +5475,7 @@
         <v>59.819266918593051</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" ht="15">
       <c r="A170" s="2">
         <v>37987</v>
       </c>
@@ -5509,7 +5507,7 @@
         <v>59.898282321893383</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" ht="15">
       <c r="A171" s="2">
         <v>38018</v>
       </c>
@@ -5541,7 +5539,7 @@
         <v>59.973432736838632</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" ht="15">
       <c r="A172" s="2">
         <v>38047</v>
       </c>
@@ -5573,7 +5571,7 @@
         <v>60.212486351166078</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" ht="15">
       <c r="A173" s="2">
         <v>38078</v>
       </c>
@@ -5605,7 +5603,7 @@
         <v>60.338048729098624</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" ht="15">
       <c r="A174" s="2">
         <v>38108</v>
       </c>
@@ -5637,7 +5635,7 @@
         <v>60.478671826295859</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" ht="15">
       <c r="A175" s="2">
         <v>38139</v>
       </c>
@@ -5669,7 +5667,7 @@
         <v>60.669170051779055</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" ht="15">
       <c r="A176" s="2">
         <v>38169</v>
       </c>
@@ -5701,7 +5699,7 @@
         <v>60.811046400356325</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" ht="15">
       <c r="A177" s="2">
         <v>38200</v>
       </c>
@@ -5733,7 +5731,7 @@
         <v>60.94948209492135</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" ht="15">
       <c r="A178" s="2">
         <v>38231</v>
       </c>
@@ -5765,7 +5763,7 @@
         <v>61.221381228966088</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" ht="15">
       <c r="A179" s="2">
         <v>38261</v>
       </c>
@@ -5797,7 +5795,7 @@
         <v>61.326807712640161</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" ht="15">
       <c r="A180" s="2">
         <v>38292</v>
       </c>
@@ -5829,7 +5827,7 @@
         <v>61.361314090713115</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" ht="15">
       <c r="A181" s="2">
         <v>38322</v>
       </c>
@@ -5861,7 +5859,7 @@
         <v>61.477105644003871</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" ht="15">
       <c r="A182" s="2">
         <v>38353</v>
       </c>
@@ -5893,7 +5891,7 @@
         <v>61.697555810665214</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" ht="15">
       <c r="A183" s="2">
         <v>38384</v>
       </c>
@@ -5925,7 +5923,7 @@
         <v>62.009880156105211</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" ht="15">
       <c r="A184" s="2">
         <v>38412</v>
       </c>
@@ -5957,7 +5955,7 @@
         <v>62.223142063119724</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" ht="15">
       <c r="A185" s="2">
         <v>38443</v>
       </c>
@@ -5989,7 +5987,7 @@
         <v>62.281553344267188</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" ht="15">
       <c r="A186" s="2">
         <v>38473</v>
       </c>
@@ -6021,7 +6019,7 @@
         <v>62.604107593718737</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" ht="15">
       <c r="A187" s="2">
         <v>38504</v>
       </c>
@@ -6053,7 +6051,7 @@
         <v>62.720483462401184</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" ht="15">
       <c r="A188" s="2">
         <v>38534</v>
       </c>
@@ -6085,7 +6083,7 @@
         <v>63.093314038491982</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" ht="15">
       <c r="A189" s="2">
         <v>38565</v>
       </c>
@@ -6117,7 +6115,7 @@
         <v>63.241935020284345</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" ht="15">
       <c r="A190" s="2">
         <v>38596</v>
       </c>
@@ -6149,7 +6147,7 @@
         <v>63.340054615064382</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" ht="15">
       <c r="A191" s="2">
         <v>38626</v>
       </c>
@@ -6181,7 +6179,7 @@
         <v>63.620120757952904</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" ht="15">
       <c r="A192" s="2">
         <v>38657</v>
       </c>
@@ -6213,7 +6211,7 @@
         <v>63.661946434506319</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" ht="15">
       <c r="A193" s="2">
         <v>38687</v>
       </c>
@@ -6245,7 +6243,7 @@
         <v>63.758394661402349</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" ht="15">
       <c r="A194" s="2">
         <v>38718</v>
       </c>
@@ -6277,7 +6275,7 @@
         <v>63.858411193965253</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" ht="15">
       <c r="A195" s="2">
         <v>38749</v>
       </c>
@@ -6309,7 +6307,7 @@
         <v>63.811190065771797</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" ht="15">
       <c r="A196" s="2">
         <v>38777</v>
       </c>
@@ -6341,7 +6339,7 @@
         <v>63.919029588324086</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" ht="15">
       <c r="A197" s="2">
         <v>38808</v>
       </c>
@@ -6373,7 +6371,7 @@
         <v>63.95768585257381</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" ht="15">
       <c r="A198" s="2">
         <v>38838</v>
       </c>
@@ -6405,7 +6403,7 @@
         <v>64.23100956239945</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" ht="15">
       <c r="A199" s="2">
         <v>38869</v>
       </c>
@@ -6437,7 +6435,7 @@
         <v>64.29105560678191</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" ht="15">
       <c r="A200" s="2">
         <v>38899</v>
       </c>
@@ -6469,7 +6467,7 @@
         <v>64.415247470191915</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" ht="15">
       <c r="A201" s="2">
         <v>38930</v>
       </c>
@@ -6501,7 +6499,7 @@
         <v>64.388927751369408</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" ht="15">
       <c r="A202" s="2">
         <v>38961</v>
       </c>
@@ -6533,7 +6531,7 @@
         <v>64.419326607580288</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" ht="15">
       <c r="A203" s="2">
         <v>38991</v>
       </c>
@@ -6565,7 +6563,7 @@
         <v>64.419705376698118</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" ht="15">
       <c r="A204" s="2">
         <v>39022</v>
       </c>
@@ -6597,7 +6595,7 @@
         <v>64.451840298473499</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" ht="15">
       <c r="A205" s="2">
         <v>39052</v>
       </c>
@@ -6629,7 +6627,7 @@
         <v>64.645499317146331</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" ht="15">
       <c r="A206" s="2">
         <v>39083</v>
       </c>
@@ -6661,7 +6659,7 @@
         <v>64.820050301879078</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" ht="15">
       <c r="A207" s="2">
         <v>39114</v>
       </c>
@@ -6693,7 +6691,7 @@
         <v>64.982925763167742</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" ht="15">
       <c r="A208" s="2">
         <v>39142</v>
       </c>
@@ -6725,7 +6723,7 @@
         <v>65.076918270770534</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" ht="15">
       <c r="A209" s="2">
         <v>39173</v>
       </c>
@@ -6757,7 +6755,7 @@
         <v>65.206692854221131</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" ht="15">
       <c r="A210" s="2">
         <v>39203</v>
       </c>
@@ -6789,7 +6787,7 @@
         <v>65.401115925248433</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" ht="15">
       <c r="A211" s="2">
         <v>39234</v>
       </c>
@@ -6821,7 +6819,7 @@
         <v>65.593747640744908</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" ht="15">
       <c r="A212" s="2">
         <v>39264</v>
       </c>
@@ -6853,7 +6851,7 @@
         <v>65.738808728986641</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" ht="15">
       <c r="A213" s="2">
         <v>39295</v>
       </c>
@@ -6885,7 +6883,7 @@
         <v>66.093124950092232</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" ht="15">
       <c r="A214" s="2">
         <v>39326</v>
       </c>
@@ -6917,7 +6915,7 @@
         <v>66.273190180934648</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" ht="15">
       <c r="A215" s="2">
         <v>39356</v>
       </c>
@@ -6949,7 +6947,7 @@
         <v>66.268978080773095</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" ht="15">
       <c r="A216" s="2">
         <v>39387</v>
       </c>
@@ -6981,7 +6979,7 @@
         <v>66.445591116010746</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" ht="15">
       <c r="A217" s="2">
         <v>39417</v>
       </c>
@@ -7013,7 +7011,7 @@
         <v>66.602901370559223</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" ht="15">
       <c r="A218" s="2">
         <v>39448</v>
       </c>
@@ -7045,7 +7043,7 @@
         <v>66.899123890593529</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" ht="15">
       <c r="A219" s="2">
         <v>39479</v>
       </c>
@@ -7077,7 +7075,7 @@
         <v>67.089945396570045</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" ht="15">
       <c r="A220" s="2">
         <v>39508</v>
       </c>
@@ -7109,7 +7107,7 @@
         <v>67.841084685567779</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" ht="15">
       <c r="A221" s="2">
         <v>39539</v>
       </c>
@@ -7141,7 +7139,7 @@
         <v>68.402420739643659</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" ht="15">
       <c r="A222" s="2">
         <v>39569</v>
       </c>
@@ -7173,7 +7171,7 @@
         <v>69.151058807859982</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" ht="15">
       <c r="A223" s="2">
         <v>39600</v>
       </c>
@@ -7205,7 +7203,7 @@
         <v>70.319262710436973</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" ht="15">
       <c r="A224" s="2">
         <v>39630</v>
       </c>
@@ -7237,7 +7235,7 @@
         <v>71.195858225056213</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" ht="15">
       <c r="A225" s="2">
         <v>39661</v>
       </c>
@@ -7269,7 +7267,7 @@
         <v>72.051372229404066</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" ht="15">
       <c r="A226" s="2">
         <v>39692</v>
       </c>
@@ -7301,7 +7299,7 @@
         <v>72.522179574153768</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" ht="15">
       <c r="A227" s="2">
         <v>39722</v>
       </c>
@@ -7333,7 +7331,7 @@
         <v>72.967202122962206</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" ht="15">
       <c r="A228" s="2">
         <v>39753</v>
       </c>
@@ -7365,7 +7363,7 @@
         <v>73.208116225963906</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" ht="15">
       <c r="A229" s="2">
         <v>39783</v>
       </c>
@@ -7397,7 +7395,7 @@
         <v>73.3382893308886</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" ht="15">
       <c r="A230" s="2">
         <v>39814</v>
       </c>
@@ -7429,7 +7427,7 @@
         <v>73.505320019790375</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" ht="15">
       <c r="A231" s="2">
         <v>39845</v>
       </c>
@@ -7461,7 +7459,7 @@
         <v>73.732058842294606</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" ht="15">
       <c r="A232" s="2">
         <v>39873</v>
       </c>
@@ -7493,7 +7491,7 @@
         <v>73.856399084111032</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" ht="15">
       <c r="A233" s="2">
         <v>39904</v>
       </c>
@@ -7525,7 +7523,7 @@
         <v>73.880249015929778</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" ht="15">
       <c r="A234" s="2">
         <v>39934</v>
       </c>
@@ -7557,7 +7555,7 @@
         <v>73.909309513133238</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" ht="15">
       <c r="A235" s="2">
         <v>39965</v>
       </c>
@@ -7589,7 +7587,7 @@
         <v>73.801732025155658</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" ht="15">
       <c r="A236" s="2">
         <v>39995</v>
       </c>
@@ -7621,7 +7619,7 @@
         <v>73.883891507598136</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" ht="15">
       <c r="A237" s="2">
         <v>40026</v>
       </c>
@@ -7653,7 +7651,7 @@
         <v>74.079483708535662</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" ht="15">
       <c r="A238" s="2">
         <v>40057</v>
       </c>
@@ -7685,7 +7683,7 @@
         <v>74.0796324394816</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" ht="15">
       <c r="A239" s="2">
         <v>40087</v>
       </c>
@@ -7717,7 +7715,7 @@
         <v>74.090065505993465</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" ht="15">
       <c r="A240" s="2">
         <v>40118</v>
       </c>
@@ -7749,7 +7747,7 @@
         <v>74.306814402202278</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" ht="15">
       <c r="A241" s="2">
         <v>40148</v>
       </c>
@@ -7781,7 +7779,7 @@
         <v>74.518163844088178</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" ht="15">
       <c r="A242" s="2">
         <v>40179</v>
       </c>
@@ -7813,7 +7811,7 @@
         <v>74.65361290530781</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" ht="15">
       <c r="A243" s="2">
         <v>40210</v>
       </c>
@@ -7845,7 +7843,7 @@
         <v>74.742937606211427</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" ht="15">
       <c r="A244" s="2">
         <v>40238</v>
       </c>
@@ -7877,7 +7875,7 @@
         <v>74.996922124090446</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" ht="15">
       <c r="A245" s="2">
         <v>40269</v>
       </c>
@@ -7909,7 +7907,7 @@
         <v>75.289786795462518</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" ht="15">
       <c r="A246" s="2">
         <v>40299</v>
       </c>
@@ -7941,7 +7939,7 @@
         <v>75.385060136819021</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" ht="15">
       <c r="A247" s="2">
         <v>40330</v>
       </c>
@@ -7973,7 +7971,7 @@
         <v>75.407163405734707</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" ht="15">
       <c r="A248" s="2">
         <v>40360</v>
       </c>
@@ -8005,7 +8003,7 @@
         <v>75.576731574588194</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" ht="15">
       <c r="A249" s="2">
         <v>40391</v>
       </c>
@@ -8037,7 +8035,7 @@
         <v>75.755827410352353</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" ht="15">
       <c r="A250" s="2">
         <v>40422</v>
       </c>
@@ -8069,7 +8067,7 @@
         <v>75.970332320764015</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" ht="15">
       <c r="A251" s="2">
         <v>40452</v>
       </c>
@@ -8101,7 +8099,7 @@
         <v>76.405091480846977</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" ht="15">
       <c r="A252" s="2">
         <v>40483</v>
       </c>
@@ -8133,7 +8131,7 @@
         <v>76.679807619535268</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" ht="15">
       <c r="A253" s="2">
         <v>40513</v>
       </c>
@@ -8165,7 +8163,7 @@
         <v>77.198812347835329</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" ht="15">
       <c r="A254" s="2">
         <v>40544</v>
       </c>
@@ -8197,7 +8195,7 @@
         <v>78.09264053654266</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" ht="15">
       <c r="A255" s="2">
         <v>40575</v>
       </c>
@@ -8229,7 +8227,7 @@
         <v>79.620726512254038</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" ht="15">
       <c r="A256" s="2">
         <v>40603</v>
       </c>
@@ -8261,7 +8259,7 @@
         <v>80.280563376650335</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" ht="15">
       <c r="A257" s="2">
         <v>40634</v>
       </c>
@@ -8293,7 +8291,7 @@
         <v>81.077842385355311</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" ht="15">
       <c r="A258" s="2">
         <v>40664</v>
       </c>
@@ -8325,7 +8323,7 @@
         <v>81.609256969612801</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" ht="15">
       <c r="A259" s="2">
         <v>40695</v>
       </c>
@@ -8357,7 +8355,7 @@
         <v>82.165455727499435</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" ht="15">
       <c r="A260" s="2">
         <v>40725</v>
       </c>
@@ -8389,7 +8387,7 @@
         <v>82.482567023451082</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" ht="15">
       <c r="A261" s="2">
         <v>40756</v>
       </c>
@@ -8421,7 +8419,7 @@
         <v>82.655186759478326</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" ht="15">
       <c r="A262" s="2">
         <v>40787</v>
       </c>
@@ -8453,7 +8451,7 @@
         <v>83.057128924776549</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" ht="15">
       <c r="A263" s="2">
         <v>40817</v>
       </c>
@@ -8485,7 +8483,7 @@
         <v>83.325029144919668</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" ht="15">
       <c r="A264" s="2">
         <v>40848</v>
       </c>
@@ -8517,7 +8515,7 @@
         <v>83.671828585123592</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" ht="15">
       <c r="A265" s="2">
         <v>40878</v>
       </c>
@@ -8549,7 +8547,7 @@
         <v>84.366437012843917</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" ht="15">
       <c r="A266" s="2">
         <v>40909</v>
       </c>
@@ -8581,7 +8579,7 @@
         <v>84.923113317722368</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" ht="15">
       <c r="A267" s="2">
         <v>40940</v>
       </c>
@@ -8613,7 +8611,7 @@
         <v>85.414062824959601</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" ht="15">
       <c r="A268" s="2">
         <v>40969</v>
       </c>
@@ -8645,7 +8643,7 @@
         <v>85.698288970365738</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" ht="15">
       <c r="A269" s="2">
         <v>41000</v>
       </c>
@@ -8677,7 +8675,7 @@
         <v>85.877727706014895</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" ht="15">
       <c r="A270" s="2">
         <v>41030</v>
       </c>
@@ -8709,7 +8707,7 @@
         <v>86.365950217606695</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" ht="15">
       <c r="A271" s="2">
         <v>41061</v>
       </c>
@@ -8741,7 +8739,7 @@
         <v>86.464770815119891</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" ht="15">
       <c r="A272" s="2">
         <v>41091</v>
       </c>
@@ -8773,7 +8771,7 @@
         <v>86.516283705552908</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" ht="15">
       <c r="A273" s="2">
         <v>41122</v>
       </c>
@@ -8805,7 +8803,7 @@
         <v>86.737739037746962</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" ht="15">
       <c r="A274" s="2">
         <v>41153</v>
       </c>
@@ -8837,7 +8835,7 @@
         <v>86.965538470891374</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" ht="15">
       <c r="A275" s="2">
         <v>41183</v>
       </c>
@@ -8869,7 +8867,7 @@
         <v>87.332465080842653</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" ht="15">
       <c r="A276" s="2">
         <v>41214</v>
       </c>
@@ -8901,7 +8899,7 @@
         <v>87.30643338072575</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" ht="15">
       <c r="A277" s="2">
         <v>41244</v>
       </c>
@@ -8933,7 +8931,7 @@
         <v>87.886601560607531</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" ht="15">
       <c r="A278" s="2">
         <v>41275</v>
       </c>
@@ -8965,7 +8963,7 @@
         <v>88.548983983466968</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" ht="15">
       <c r="A279" s="2">
         <v>41306</v>
       </c>
@@ -8997,7 +8995,7 @@
         <v>88.886285908712566</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" ht="15">
       <c r="A280" s="2">
         <v>41334</v>
       </c>
@@ -9029,7 +9027,7 @@
         <v>89.102265612736105</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" ht="15">
       <c r="A281" s="2">
         <v>41365</v>
       </c>
@@ -9061,7 +9059,7 @@
         <v>89.344629084830501</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" ht="15">
       <c r="A282" s="2">
         <v>41395</v>
       </c>
@@ -9093,7 +9091,7 @@
         <v>89.610562537028471</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" ht="15">
       <c r="A283" s="2">
         <v>41426</v>
       </c>
@@ -9125,7 +9123,7 @@
         <v>89.823728512484919</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" ht="15">
       <c r="A284" s="2">
         <v>41456</v>
       </c>
@@ -9157,7 +9155,7 @@
         <v>90.036701211811348</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" ht="15">
       <c r="A285" s="2">
         <v>41487</v>
       </c>
@@ -9189,7 +9187,7 @@
         <v>90.121948681510446</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" ht="15">
       <c r="A286" s="2">
         <v>41518</v>
       </c>
@@ -9221,7 +9219,7 @@
         <v>90.182334768762374</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" ht="15">
       <c r="A287" s="2">
         <v>41548</v>
       </c>
@@ -9253,7 +9251,7 @@
         <v>90.365374680433959</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" ht="15">
       <c r="A288" s="2">
         <v>41579</v>
       </c>
@@ -9285,7 +9283,7 @@
         <v>90.552112286015031</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" ht="15">
       <c r="A289" s="2">
         <v>41609</v>
       </c>
@@ -9317,7 +9315,7 @@
         <v>91.267626131279172</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" ht="15">
       <c r="A290" s="2">
         <v>41640</v>
       </c>
@@ -9349,7 +9347,7 @@
         <v>91.43918544942413</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" ht="15">
       <c r="A291" s="2">
         <v>41671</v>
       </c>
@@ -9381,7 +9379,7 @@
         <v>91.865912516427088</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" ht="15">
       <c r="A292" s="2">
         <v>41699</v>
       </c>
@@ -9413,7 +9411,7 @@
         <v>92.176588693105273</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" ht="15">
       <c r="A293" s="2">
         <v>41730</v>
       </c>
@@ -9445,7 +9443,7 @@
         <v>92.430792792782327</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" ht="15">
       <c r="A294" s="2">
         <v>41760</v>
       </c>
@@ -9477,7 +9475,7 @@
         <v>92.633906321719479</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" ht="15">
       <c r="A295" s="2">
         <v>41791</v>
       </c>
@@ -9509,7 +9507,7 @@
         <v>92.777966464272595</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" ht="15">
       <c r="A296" s="2">
         <v>41821</v>
       </c>
@@ -9541,7 +9539,7 @@
         <v>93.205756270409751</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" ht="15">
       <c r="A297" s="2">
         <v>41852</v>
       </c>
@@ -9573,7 +9571,7 @@
         <v>93.528591497890602</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" ht="15">
       <c r="A298" s="2">
         <v>41883</v>
       </c>
@@ -9605,7 +9603,7 @@
         <v>93.524074567585188</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" ht="15">
       <c r="A299" s="2">
         <v>41913</v>
       </c>
@@ -9637,7 +9635,7 @@
         <v>93.764994167078214</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" ht="15">
       <c r="A300" s="2">
         <v>41944</v>
       </c>
@@ -9669,7 +9667,7 @@
         <v>93.964912900754129</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" ht="15">
       <c r="A301" s="2">
         <v>41974</v>
       </c>
@@ -9701,7 +9699,7 @@
         <v>94.555949346003032</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" ht="15">
       <c r="A302" s="2">
         <v>42005</v>
       </c>
@@ -9733,7 +9731,7 @@
         <v>94.953794089924671</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" ht="15">
       <c r="A303" s="2">
         <v>42036</v>
       </c>
@@ -9765,7 +9763,7 @@
         <v>95.248892208870146</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" ht="15">
       <c r="A304" s="2">
         <v>42064</v>
       </c>
@@ -9797,7 +9795,7 @@
         <v>95.512988432760366</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" ht="15">
       <c r="A305" s="2">
         <v>42095</v>
       </c>
@@ -9829,7 +9827,7 @@
         <v>95.648511520045744</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" ht="15">
       <c r="A306" s="2">
         <v>42125</v>
       </c>
@@ -9861,7 +9859,7 @@
         <v>95.627441450928146</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" ht="15">
       <c r="A307" s="2">
         <v>42156</v>
       </c>
@@ -9893,7 +9891,7 @@
         <v>95.589520974547511</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" ht="15">
       <c r="A308" s="2">
         <v>42186</v>
       </c>
@@ -9925,7 +9923,7 @@
         <v>95.687124326887229</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" ht="15">
       <c r="A309" s="2">
         <v>42217</v>
       </c>
@@ -9957,7 +9955,7 @@
         <v>95.743252141969705</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" ht="15">
       <c r="A310" s="2">
         <v>42248</v>
       </c>
@@ -9989,7 +9987,7 @@
         <v>95.886389536387028</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" ht="15">
       <c r="A311" s="2">
         <v>42278</v>
       </c>
@@ -10021,7 +10019,7 @@
         <v>95.831986316800368</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" ht="15">
       <c r="A312" s="2">
         <v>42309</v>
       </c>
@@ -10053,7 +10051,7 @@
         <v>96.003213831815714</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" ht="15">
       <c r="A313" s="2">
         <v>42339</v>
       </c>
@@ -10085,7 +10083,7 @@
         <v>96.439585920089854</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" ht="15">
       <c r="A314" s="2">
         <v>42370</v>
       </c>
@@ -10117,7 +10115,7 @@
         <v>96.559438165977483</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10" ht="15">
       <c r="A315" s="2">
         <v>42401</v>
       </c>
@@ -10149,7 +10147,7 @@
         <v>96.866493178261436</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" ht="15">
       <c r="A316" s="2">
         <v>42430</v>
       </c>
@@ -10181,7 +10179,7 @@
         <v>97.088845639493755</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" ht="15">
       <c r="A317" s="2">
         <v>42461</v>
       </c>
@@ -10213,7 +10211,7 @@
         <v>97.152667080250353</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" ht="15">
       <c r="A318" s="2">
         <v>42491</v>
       </c>
@@ -10245,7 +10243,7 @@
         <v>97.284297281652428</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10" ht="15">
       <c r="A319" s="2">
         <v>42522</v>
       </c>
@@ -10277,7 +10275,7 @@
         <v>97.220249297989596</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:10" ht="15">
       <c r="A320" s="2">
         <v>42552</v>
       </c>
@@ -10309,7 +10307,7 @@
         <v>97.359968650157811</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10" ht="15">
       <c r="A321" s="2">
         <v>42583</v>
       </c>
@@ -10341,7 +10339,7 @@
         <v>97.249688187199752</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" ht="15">
       <c r="A322" s="2">
         <v>42614</v>
       </c>
@@ -10373,7 +10371,7 @@
         <v>97.192501739056354</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10" ht="15">
       <c r="A323" s="2">
         <v>42644</v>
       </c>
@@ -10405,7 +10403,7 @@
         <v>97.315082964732582</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10" ht="15">
       <c r="A324" s="2">
         <v>42675</v>
       </c>
@@ -10437,7 +10435,7 @@
         <v>97.306168288649673</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" ht="15">
       <c r="A325" s="2">
         <v>42705</v>
       </c>
@@ -10469,7 +10467,7 @@
         <v>97.677146561881159</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10" ht="15">
       <c r="A326" s="2">
         <v>42736</v>
       </c>
@@ -10501,7 +10499,7 @@
         <v>97.817213449582653</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" ht="15">
       <c r="A327" s="2">
         <v>42767</v>
       </c>
@@ -10533,7 +10531,7 @@
         <v>97.970496575765225</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" ht="15">
       <c r="A328" s="2">
         <v>42795</v>
       </c>
@@ -10565,7 +10563,7 @@
         <v>98.016101166404198</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10" ht="15">
       <c r="A329" s="2">
         <v>42826</v>
       </c>
@@ -10597,7 +10595,7 @@
         <v>98.013527869103527</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" ht="15">
       <c r="A330" s="2">
         <v>42856</v>
       </c>
@@ -10629,7 +10627,7 @@
         <v>98.183165142744073</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" ht="15">
       <c r="A331" s="2">
         <v>42887</v>
       </c>
@@ -10661,7 +10659,7 @@
         <v>98.340874374861556</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" ht="15">
       <c r="A332" s="2">
         <v>42917</v>
       </c>
@@ -10693,7 +10691,7 @@
         <v>98.636008781819825</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" ht="15">
       <c r="A333" s="2">
         <v>42948</v>
       </c>
@@ -10725,7 +10723,7 @@
         <v>98.588604924310062</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" ht="15">
       <c r="A334" s="2">
         <v>42979</v>
       </c>
@@ -10757,7 +10755,7 @@
         <v>98.545822944967682</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" ht="15">
       <c r="A335" s="2">
         <v>43009</v>
       </c>
@@ -10789,7 +10787,7 @@
         <v>98.801375644815394</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" ht="15">
       <c r="A336" s="2">
         <v>43040</v>
       </c>
@@ -10821,7 +10819,7 @@
         <v>98.791914350776835</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" ht="15">
       <c r="A337" s="2">
         <v>43070</v>
       </c>
@@ -10853,7 +10851,7 @@
         <v>99.129139304700004</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" ht="15">
       <c r="A338" s="2">
         <v>43101</v>
       </c>
@@ -10885,7 +10883,7 @@
         <v>99.003704405700006</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" ht="15">
       <c r="A339" s="2">
         <v>43132</v>
       </c>
@@ -10917,7 +10915,7 @@
         <v>99.583262735000005</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" ht="15">
       <c r="A340" s="2">
         <v>43160</v>
       </c>
@@ -10949,7 +10947,7 @@
         <v>99.674671691699999</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" ht="15">
       <c r="A341" s="2">
         <v>43191</v>
       </c>
@@ -10981,7 +10979,7 @@
         <v>99.760066473999998</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" ht="15">
       <c r="A342" s="2">
         <v>43221</v>
       </c>
@@ -11013,7 +11011,7 @@
         <v>99.602258148100006</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" ht="15">
       <c r="A343" s="2">
         <v>43252</v>
       </c>
@@ -11045,7 +11043,7 @@
         <v>99.814510838100006</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" ht="15">
       <c r="A344" s="2">
         <v>43282</v>
       </c>
@@ -11077,7 +11075,7 @@
         <v>99.861290583900001</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" ht="15">
       <c r="A345" s="2">
         <v>43313</v>
       </c>
@@ -11109,7 +11107,7 @@
         <v>99.873197759700005</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" ht="15">
       <c r="A346" s="2">
         <v>43344</v>
       </c>
@@ -11141,7 +11139,7 @@
         <v>99.918500880500005</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" ht="15">
       <c r="A347" s="2">
         <v>43374</v>
       </c>
@@ -11173,7 +11171,7 @@
         <v>100.15324684079999</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" ht="15">
       <c r="A348" s="2">
         <v>43405</v>
       </c>
@@ -11205,7 +11203,7 @@
         <v>100.4310360896</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" ht="15">
       <c r="A349" s="2">
         <v>43435</v>
       </c>
@@ -11237,7 +11235,7 @@
         <v>100.4881184959</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" ht="15">
       <c r="A350" s="2">
         <v>43466</v>
       </c>
@@ -11269,7 +11267,7 @@
         <v>100.5119693571</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" ht="15">
       <c r="A351" s="2">
         <v>43497</v>
       </c>
@@ -11301,7 +11299,7 @@
         <v>100.6594874977</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" ht="15">
       <c r="A352" s="2">
         <v>43525</v>
       </c>
@@ -11333,7 +11331,7 @@
         <v>100.7650422315</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" ht="15">
       <c r="A353" s="2">
         <v>43556</v>
       </c>
@@ -11365,7 +11363,7 @@
         <v>100.79815590859999</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" ht="15">
       <c r="A354" s="2">
         <v>43586</v>
       </c>
@@ -11397,7 +11395,7 @@
         <v>100.81319448950001</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" ht="15">
       <c r="A355" s="2">
         <v>43617</v>
       </c>
@@ -11429,7 +11427,7 @@
         <v>100.7761852853</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" ht="15">
       <c r="A356" s="2">
         <v>43647</v>
       </c>
@@ -11461,7 +11459,7 @@
         <v>100.8734051876</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" ht="15">
       <c r="A357" s="2">
         <v>43678</v>
       </c>
@@ -11493,7 +11491,7 @@
         <v>100.8559084234</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" ht="15">
       <c r="A358" s="2">
         <v>43709</v>
       </c>
@@ -11525,7 +11523,7 @@
         <v>100.93008440049999</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" ht="15">
       <c r="A359" s="2">
         <v>43739</v>
       </c>
@@ -11557,7 +11555,7 @@
         <v>100.8341984266</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" ht="15">
       <c r="A360" s="2">
         <v>43770</v>
       </c>
@@ -11589,7 +11587,7 @@
         <v>100.94287048469999</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10" ht="15">
       <c r="A361" s="2">
         <v>43800</v>
       </c>
@@ -11621,7 +11619,7 @@
         <v>101.1596809319</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:10" ht="15">
       <c r="A362" s="2">
         <v>43831</v>
       </c>
@@ -11653,7 +11651,7 @@
         <v>101.2045107309</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10" ht="15">
       <c r="A363" s="2">
         <v>43862</v>
       </c>
@@ -11685,7 +11683,7 @@
         <v>101.1411291438</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10" ht="15">
       <c r="A364" s="2">
         <v>43891</v>
       </c>
@@ -11717,7 +11715,7 @@
         <v>101.07968503630001</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10" ht="15">
       <c r="A365" s="2">
         <v>43922</v>
       </c>
@@ -11749,7 +11747,7 @@
         <v>102.897481275</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:10" ht="15">
       <c r="A366" s="2">
         <v>43952</v>
       </c>
@@ -11781,7 +11779,7 @@
         <v>103.50509456899999</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:10" ht="15">
       <c r="A367" s="2">
         <v>43983</v>
       </c>
@@ -11813,7 +11811,7 @@
         <v>102.94358752380001</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10" ht="15">
       <c r="A368" s="2">
         <v>44013</v>
       </c>
@@ -11845,7 +11843,7 @@
         <v>101.7363840526</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" ht="15">
       <c r="A369" s="2">
         <v>44044</v>
       </c>
@@ -11877,7 +11875,7 @@
         <v>101.66027520740001</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" ht="15">
       <c r="A370" s="2">
         <v>44075</v>
       </c>
@@ -11909,7 +11907,7 @@
         <v>101.24837571659999</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:10" ht="15">
       <c r="A371" s="2">
         <v>44105</v>
       </c>
@@ -11941,7 +11939,7 @@
         <v>100.762303436</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10" ht="15">
       <c r="A372" s="2">
         <v>44136</v>
       </c>
@@ -11973,7 +11971,7 @@
         <v>100.9257018454</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10" ht="15">
       <c r="A373" s="2">
         <v>44166</v>
       </c>
@@ -12005,7 +12003,7 @@
         <v>101.17256152980001</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:10" ht="15">
       <c r="A374" s="2">
         <v>44197</v>
       </c>
@@ -12037,7 +12035,7 @@
         <v>101.02374297110001</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10" ht="15">
       <c r="A375" s="2">
         <v>44228</v>
       </c>
@@ -12069,7 +12067,7 @@
         <v>100.9420026379</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:10" ht="15">
       <c r="A376" s="2">
         <v>44256</v>
       </c>
@@ -12101,7 +12099,7 @@
         <v>100.6526725713</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10" ht="15">
       <c r="A377" s="2">
         <v>44287</v>
       </c>
@@ -12133,7 +12131,7 @@
         <v>100.25707553940001</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:10" ht="15">
       <c r="A378" s="2">
         <v>44317</v>
       </c>
@@ -12165,7 +12163,7 @@
         <v>99.726993707600002</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:10" ht="15">
       <c r="A379" s="2">
         <v>44348</v>
       </c>
@@ -12197,7 +12195,7 @@
         <v>99.691455128300007</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:10" ht="15">
       <c r="A380" s="2">
         <v>44378</v>
       </c>
@@ -12229,7 +12227,7 @@
         <v>99.735951459999995</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:10" ht="15">
       <c r="A381" s="2">
         <v>44409</v>
       </c>
@@ -12261,7 +12259,7 @@
         <v>99.834556324700003</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:10" ht="15">
       <c r="A382" s="2">
         <v>44440</v>
       </c>
@@ -12293,7 +12291,7 @@
         <v>99.932070077999995</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:10" ht="15">
       <c r="A383" s="2">
         <v>44470</v>
       </c>
@@ -12325,7 +12323,7 @@
         <v>100.1119419593</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:10" ht="15">
       <c r="A384" s="2">
         <v>44501</v>
       </c>
@@ -12357,7 +12355,7 @@
         <v>99.947748171699999</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:10" ht="15">
       <c r="A385" s="2">
         <v>44531</v>
       </c>
@@ -12389,7 +12387,7 @@
         <v>100.2447778281</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:10" ht="15">
       <c r="A386" s="2">
         <v>44562</v>
       </c>
@@ -12421,7 +12419,7 @@
         <v>100.34863606490001</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:10" ht="15">
       <c r="A387" s="2">
         <v>44593</v>
       </c>
@@ -12453,7 +12451,7 @@
         <v>100.20043147680001</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:10" ht="15">
       <c r="A388" s="2">
         <v>44621</v>
       </c>
@@ -12485,7 +12483,7 @@
         <v>100.5713691496</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:10" ht="15">
       <c r="A389" s="2">
         <v>44652</v>
       </c>
@@ -12517,7 +12515,7 @@
         <v>100.9809480893</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:10" ht="15">
       <c r="A390" s="2">
         <v>44682</v>
       </c>
@@ -12549,7 +12547,7 @@
         <v>101.21232956919999</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:10" ht="15">
       <c r="A391" s="2">
         <v>44713</v>
       </c>
@@ -12581,7 +12579,7 @@
         <v>101.5445519141</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:10" ht="15">
       <c r="A392" s="2">
         <v>44743</v>
       </c>
@@ -12613,7 +12611,7 @@
         <v>101.84407425569999</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:10" ht="15">
       <c r="A393" s="2">
         <v>44774</v>
       </c>
@@ -12645,7 +12643,7 @@
         <v>101.88000770799999</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:10" ht="15">
       <c r="A394" s="2">
         <v>44805</v>
       </c>
@@ -12677,7 +12675,7 @@
         <v>102.01522279389999</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:10" ht="15">
       <c r="A395" s="2">
         <v>44835</v>
       </c>
@@ -12709,7 +12707,7 @@
         <v>102.1007352746</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:10" ht="15">
       <c r="A396" s="2">
         <v>44866</v>
       </c>
@@ -12741,7 +12739,7 @@
         <v>102.1195128634</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:10" ht="15">
       <c r="A397" s="2">
         <v>44896</v>
       </c>
@@ -12773,7 +12771,7 @@
         <v>102.68789657560001</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:10" ht="15">
       <c r="A398" s="2">
         <v>44927</v>
       </c>
@@ -12805,7 +12803,7 @@
         <v>103.3816831325</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:10" ht="15">
       <c r="A399" s="2">
         <v>44958</v>
       </c>
@@ -12837,7 +12835,7 @@
         <v>103.5010232786</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:10" ht="15">
       <c r="A400" s="2">
         <v>44986</v>
       </c>
@@ -12869,7 +12867,7 @@
         <v>103.6193244789</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:10" ht="15">
       <c r="A401" s="2">
         <v>45017</v>
       </c>
@@ -12901,7 +12899,7 @@
         <v>103.6081667711</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:10" ht="15">
       <c r="A402" s="2">
         <v>45047</v>
       </c>
@@ -12933,7 +12931,7 @@
         <v>104.0532721524</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:10" ht="15">
       <c r="A403" s="2">
         <v>45078</v>
       </c>
@@ -12965,7 +12963,7 @@
         <v>104.4238661964</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:10" ht="15">
       <c r="A404" s="2">
         <v>45108</v>
       </c>
@@ -12997,7 +12995,7 @@
         <v>104.6945492</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:10" ht="15">
       <c r="A405" s="2">
         <v>45139</v>
       </c>
@@ -13029,7 +13027,7 @@
         <v>104.8301517188</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:10" ht="15">
       <c r="A406" s="2">
         <v>45170</v>
       </c>
@@ -13061,7 +13059,7 @@
         <v>104.777814096</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:10" ht="15">
       <c r="A407" s="2">
         <v>45200</v>
       </c>
@@ -13093,7 +13091,7 @@
         <v>104.6776802423</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:10" ht="15">
       <c r="A408" s="2">
         <v>45231</v>
       </c>
@@ -13125,7 +13123,7 @@
         <v>104.56585889999999</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:10" ht="15">
       <c r="A409" s="2">
         <v>45261</v>
       </c>
@@ -13157,7 +13155,7 @@
         <v>105.4551670912</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:10" ht="15">
       <c r="A410" s="2">
         <v>45292</v>
       </c>
@@ -13189,7 +13187,7 @@
         <v>105.90298</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:10" ht="15">
       <c r="A411" s="2">
         <v>45323</v>
       </c>
@@ -13221,7 +13219,7 @@
         <v>106.9941944</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:10" ht="15">
       <c r="A412" s="2">
         <v>45352</v>
       </c>
@@ -13253,7 +13251,7 @@
         <v>108.55164000000001</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:10" ht="15">
       <c r="A413" s="2">
         <v>45383</v>
       </c>
@@ -13285,7 +13283,7 @@
         <v>109.9720313716</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:10" ht="15">
       <c r="A414" s="2">
         <v>45413</v>
       </c>
@@ -13317,7 +13315,7 @@
         <v>111.1834658688</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:10" ht="15">
       <c r="A415" s="2">
         <v>45444</v>
       </c>
@@ -13349,7 +13347,7 @@
         <v>111.90962944890001</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:10" ht="15">
       <c r="A416" s="2">
         <v>45474</v>
       </c>
@@ -13381,7 +13379,7 @@
         <v>112.2508378177</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:10" ht="15">
       <c r="A417" s="2">
         <v>45505</v>
       </c>
@@ -13413,7 +13411,7 @@
         <v>116.209581</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:10" ht="15">
       <c r="A418" s="2">
         <v>45536</v>
       </c>
@@ -13445,7 +13443,7 @@
         <v>119.536902669</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:10" ht="15">
       <c r="A419" s="2">
         <v>45566</v>
       </c>
@@ -13477,7 +13475,7 @@
         <v>121.5677101</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:10" ht="15">
       <c r="A420" s="2">
         <v>45597</v>
       </c>
@@ -13509,7 +13507,7 @@
         <v>123.1845869925</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:10" ht="15">
       <c r="A421" s="2">
         <v>45627</v>
       </c>
